--- a/herbivory/data/surfaceAreaAnalysis/herbivoryMetadata.xlsx
+++ b/herbivory/data/surfaceAreaAnalysis/herbivoryMetadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Photogrammetry\Desktop\GitHub\photogrammetryNOAA\herbivory\data\surfaceAreaAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdalonzo\Documents\GitHub\photogrammetryNOAA\herbivory\data\surfaceAreaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE516B10-AF77-4551-94C6-B79D4412ADDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A506F48-2303-403B-9D55-5697BF85977E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{11FD2ECE-997D-43AC-BF78-56BD11B1F506}"/>
   </bookViews>
@@ -45,19 +45,10 @@
     <t>surfaceArea</t>
   </si>
   <si>
-    <t>trialGroup</t>
-  </si>
-  <si>
     <t>2020_10_14</t>
   </si>
   <si>
     <t>U1</t>
-  </si>
-  <si>
-    <t>initial</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>2020_10_15</t>
@@ -76,6 +67,15 @@
   </si>
   <si>
     <t>Z2</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
 </sst>
 </file>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACAFCE2-6CB2-44D2-8771-997114907909}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -464,14 +464,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>15.2</v>
@@ -487,14 +487,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>19.5</v>
@@ -510,13 +510,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>10.7</v>
@@ -533,13 +533,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>23.2</v>
@@ -556,13 +556,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>8.8000000000000007</v>
@@ -579,14 +579,14 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -602,14 +602,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>2.5</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>2.2999999999999998</v>
@@ -648,13 +648,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>1.9</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>2.6</v>
@@ -694,14 +694,14 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>7.3</v>
@@ -717,14 +717,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
       <c r="D13">
         <v>2</v>
       </c>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>6.8</v>
@@ -740,13 +740,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>9.5</v>
@@ -763,13 +763,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>12.2</v>
@@ -786,13 +786,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>12.8</v>
@@ -809,14 +809,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
       <c r="D17">
         <v>2</v>
       </c>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>3.9</v>
@@ -832,14 +832,14 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
       <c r="D18">
         <v>2</v>
       </c>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>3.7</v>
@@ -855,13 +855,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>7</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1">
         <v>4</v>
@@ -878,13 +878,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>6.7</v>
@@ -901,13 +901,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>7</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <v>9.1999999999999993</v>
@@ -924,13 +924,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <v>7.8</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>18.7</v>
@@ -970,13 +970,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>14.9</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>8.5</v>
@@ -1016,13 +1016,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>12.6</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <v>3.2</v>
@@ -1062,13 +1062,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G28">
         <v>3.8</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G30">
         <v>3.2</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G32">
         <v>7.8</v>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1192,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>11.8</v>
@@ -1200,13 +1200,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1215,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <v>13.7</v>
@@ -1223,13 +1223,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G35">
         <v>8.6</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1261,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G36">
         <v>15.5</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G37">
         <v>2.1</v>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G38">
         <v>2.5</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G39">
         <v>2.7</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1353,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <v>9.9</v>
@@ -1407,13 +1407,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>8.5</v>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G44">
         <v>5.7</v>
@@ -1453,13 +1453,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>6.9</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1491,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <v>9.4</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47">
         <v>1.9</v>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48">
         <v>1.5</v>
@@ -1545,13 +1545,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1568,13 +1568,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1606,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G52">
         <v>10.6</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1652,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G53">
         <v>9.1</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -1675,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G54">
         <v>14</v>
@@ -1683,13 +1683,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <v>7.3</v>
@@ -1706,13 +1706,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -1721,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G56">
         <v>10.1</v>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G57">
         <v>2.2000000000000002</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G58">
         <v>4.2</v>
@@ -1775,13 +1775,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G59">
         <v>3.1</v>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1813,7 +1813,7 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1836,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1844,14 +1844,14 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
         <v>11</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
       <c r="D62">
         <v>1</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G62">
         <v>11.1</v>
@@ -1867,14 +1867,14 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
         <v>11</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
       <c r="D63">
         <v>1</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G63">
         <v>9.8000000000000007</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>11</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G64">
         <v>7.7</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
         <v>11</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G65">
         <v>6.1</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
         <v>11</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G66">
         <v>10.6</v>
@@ -1959,14 +1959,14 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
         <v>11</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
       <c r="D67">
         <v>1</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G67">
         <v>3.2</v>
@@ -1982,14 +1982,14 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>11</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
       <c r="D68">
         <v>1</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G68">
         <v>0.7</v>
@@ -2005,13 +2005,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
         <v>11</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G69">
         <v>3.2</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
         <v>11</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
         <v>11</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2074,14 +2074,14 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
         <v>11</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
       <c r="D72">
         <v>2</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G72" s="1">
         <v>8</v>
@@ -2097,14 +2097,14 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
         <v>11</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
       <c r="D73">
         <v>2</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G73">
         <v>9.1</v>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
         <v>11</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>14</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -2135,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G74">
         <v>8.1</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
         <v>11</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G75">
         <v>9.6</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
         <v>11</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2181,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G76">
         <v>6.9</v>
@@ -2189,14 +2189,14 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
         <v>11</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>14</v>
-      </c>
       <c r="D77">
         <v>2</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G77">
         <v>2.1</v>
@@ -2212,14 +2212,14 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
         <v>11</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
       <c r="D78">
         <v>2</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G78">
         <v>1.8</v>
@@ -2235,13 +2235,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
         <v>11</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -2250,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2258,13 +2258,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
         <v>11</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>14</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -2273,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
         <v>11</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>14</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -2296,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2304,13 +2304,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G82">
         <v>8.5</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G83">
         <v>7.6</v>
@@ -2350,13 +2350,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2365,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G84">
         <v>6.1</v>
@@ -2373,13 +2373,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2388,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G85" s="1">
         <v>7</v>
@@ -2396,13 +2396,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G86">
         <v>7.3</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G87">
         <v>3.4</v>
@@ -2442,13 +2442,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2457,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G88">
         <v>1.6</v>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2511,13 +2511,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2534,13 +2534,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G92">
         <v>11.5</v>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -2572,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G93">
         <v>6.3</v>
@@ -2580,13 +2580,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -2595,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G94">
         <v>5.2</v>
@@ -2603,13 +2603,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -2618,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G95">
         <v>5.3</v>
@@ -2626,13 +2626,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -2641,7 +2641,7 @@
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G96">
         <v>7.7</v>
@@ -2649,13 +2649,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G97">
         <v>1.4</v>
@@ -2672,13 +2672,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -2687,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98">
         <v>2.7</v>
@@ -2695,13 +2695,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2710,7 +2710,7 @@
         <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99">
         <v>1.3</v>
@@ -2718,13 +2718,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -2733,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100">
         <v>2.1</v>
@@ -2741,13 +2741,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -2756,7 +2756,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2764,13 +2764,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G102">
         <v>11.2</v>
@@ -2787,13 +2787,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2802,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G103" s="1">
         <v>7</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G104">
         <v>7.3</v>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2848,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G105">
         <v>7.4</v>
@@ -2856,13 +2856,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G106">
         <v>9.4</v>
@@ -2879,13 +2879,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G107">
         <v>2.5</v>
@@ -2902,13 +2902,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G108">
         <v>2.2999999999999998</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2940,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G109">
         <v>2.9</v>
@@ -2948,13 +2948,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -2963,7 +2963,7 @@
         <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -2986,7 +2986,7 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -2994,13 +2994,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G112" s="1">
         <v>7</v>
@@ -3017,13 +3017,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -3032,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G113" s="1">
         <v>6</v>
@@ -3040,13 +3040,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -3055,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G114">
         <v>4.5999999999999996</v>
@@ -3063,13 +3063,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -3078,7 +3078,7 @@
         <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G115">
         <v>4.9000000000000004</v>
@@ -3086,13 +3086,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -3101,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G116">
         <v>6.2</v>
@@ -3109,13 +3109,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G117">
         <v>2.2999999999999998</v>
@@ -3132,13 +3132,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -3147,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G118">
         <v>2.4</v>
@@ -3155,13 +3155,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -3170,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G119">
         <v>0.8</v>
@@ -3178,13 +3178,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -3193,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -3216,7 +3216,7 @@
         <v>5</v>
       </c>
       <c r="F121" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G121">
         <v>0</v>

--- a/herbivory/data/surfaceAreaAnalysis/herbivoryMetadata.xlsx
+++ b/herbivory/data/surfaceAreaAnalysis/herbivoryMetadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Photogrammetry\Desktop\GitHub\photogrammetryNOAA\herbivory\data\surfaceAreaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B28698F-A629-41A7-81B0-AB94660F3014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A8F264-9C6C-45A5-8D5C-2214F17E4B20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{11FD2ECE-997D-43AC-BF78-56BD11B1F506}"/>
   </bookViews>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACAFCE2-6CB2-44D2-8771-997114907909}">
   <dimension ref="A1:H661"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
